--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P06_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P06_trail13 Features.xlsx
@@ -4169,7 +4169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4180,29 +4180,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="18" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4223,115 +4221,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4348,72 +4336,66 @@
         <v>1.832936610792668e-09</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-3.154770165891314</v>
+        <v>1.160683388101954e-08</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>10.95923880409797</v>
+        <v>3.910331629518954e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.160683388101954e-08</v>
+        <v>0.08878674600412043</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.910331629518954e-07</v>
+        <v>0.2849932312557768</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.08878674600412043</v>
+        <v>0.08890989414092126</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2849932312557768</v>
+        <v>1.927076245281928</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.08890989414092126</v>
+        <v>4.398954881278327</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.959036415071554</v>
+        <v>8.344831966196498</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>4.398954881278327</v>
+        <v>1.070337461526274e-19</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>8.344831966196498</v>
+        <v>318588056316.4698</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.070337461526274e-19</v>
+        <v>3.779446821151981e-10</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>318588056316.4698</v>
+        <v>10863.74858894111</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.779446821151981e-10</v>
+        <v>2.503083717136694e-06</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>10863.74858894111</v>
+        <v>7.356021682757606</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>2.503083717136694e-06</v>
+        <v>1.946736405276003</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.356021682757606</v>
+        <v>0.0001354445006805796</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.946736405276003</v>
+        <v>8.98798912022596</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0001354445006805796</v>
+        <v>0.9623715014774437</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>8.98798912022596</v>
+        <v>0.6155002686089243</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9623715014774437</v>
+        <v>759</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.6155002686089243</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>759</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>22.36853378867796</v>
       </c>
     </row>
@@ -4428,72 +4410,66 @@
         <v>1.415354700063414e-09</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-2.836656844993964</v>
+        <v>8.845282820401134e-09</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>9.411287663252837</v>
+        <v>3.911711494935788e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>8.845282820401134e-09</v>
+        <v>0.08189634869002363</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.911711494935788e-07</v>
+        <v>0.2804568923843072</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.08189634869002363</v>
+        <v>0.08518372084398333</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2804568923843072</v>
+        <v>1.92986755958627</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.08518372084398333</v>
+        <v>4.667307417084816</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.965749541399427</v>
+        <v>7.986934267737261</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>4.667307417084816</v>
+        <v>1.02476191866076e-19</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>7.986934267737261</v>
+        <v>324829525543.7097</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.02476191866076e-19</v>
+        <v>3.694795478977147e-10</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>324829525543.7097</v>
+        <v>10812.69552146106</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.694795478977147e-10</v>
+        <v>2.579361445156205e-06</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>10812.69552146106</v>
+        <v>7.271069225976301</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>2.579361445156205e-06</v>
+        <v>1.967004175450235</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.271069225976301</v>
+        <v>0.0001363668356341085</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.967004175450235</v>
+        <v>8.970726394391733</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0001363668356341085</v>
+        <v>0.9623002605616481</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>8.970726394391733</v>
+        <v>0.6002844488325046</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9623002605616481</v>
+        <v>770</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.6002844488325046</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>770</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>22.62595256482293</v>
       </c>
     </row>
@@ -4508,72 +4484,66 @@
         <v>1.11833567623063e-09</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-2.347196515535263</v>
+        <v>6.810610313103911e-09</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>7.093235720335546</v>
+        <v>3.912688054349521e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>6.810610313103911e-09</v>
+        <v>0.0727492789285317</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.912688054349521e-07</v>
+        <v>0.2752153070256291</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.0727492789285317</v>
+        <v>0.08087774253419293</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2752153070256291</v>
+        <v>1.926783070876393</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.08087774253419293</v>
+        <v>4.078685827391859</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.965637964620583</v>
+        <v>7.943929017444676</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>4.078685827391859</v>
+        <v>1.035887252675497e-19</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>7.943929017444676</v>
+        <v>322337832180.9227</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.035887252675497e-19</v>
+        <v>3.724076871642347e-10</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>322337832180.9227</v>
+        <v>10763.04238288681</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.724076871642347e-10</v>
+        <v>2.686350202486766e-06</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>10763.04238288681</v>
+        <v>7.131563261233207</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>2.686350202486766e-06</v>
+        <v>1.925903707793007</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.131563261233207</v>
+        <v>0.0001366256075749427</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.925903707793007</v>
+        <v>8.965390183889369</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0001366256075749427</v>
+        <v>0.9618405732662039</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>8.965390183889369</v>
+        <v>0.6065104665418972</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9618405732662039</v>
+        <v>770</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.6065104665418972</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>770</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>22.43745264844141</v>
       </c>
     </row>
@@ -4588,72 +4558,66 @@
         <v>9.142599875111649e-10</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-1.690543728653899</v>
+        <v>5.28432946926042e-09</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>4.039460595505827</v>
+        <v>3.913365510889204e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.28432946926042e-09</v>
+        <v>0.06072280077108449</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.913365510889204e-07</v>
+        <v>0.2659670049386494</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.06072280077108449</v>
+        <v>0.07428723096002224</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2659670049386494</v>
+        <v>1.923685283215126</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.07428723096002224</v>
+        <v>4.092780937822626</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.967774024618684</v>
+        <v>7.8338583778614</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>4.092780937822626</v>
+        <v>1.065201493168334e-19</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>7.8338583778614</v>
+        <v>315562124836.4227</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.065201493168334e-19</v>
+        <v>3.806633272922042e-10</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>315562124836.4227</v>
+        <v>10607.21837621257</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.806633272922042e-10</v>
+        <v>2.742356606340785e-06</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>10607.21837621257</v>
+        <v>7.602749344899306</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>2.742356606340785e-06</v>
+        <v>1.836344967510537</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.602749344899306</v>
+        <v>0.0001585131415104812</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.836344967510537</v>
+        <v>8.986073061989689</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0001585131415104812</v>
+        <v>0.961411932182452</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>8.986073061989689</v>
+        <v>0.6097333953317993</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.961411932182452</v>
+        <v>753</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.6097333953317993</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>753</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>22.04071173500387</v>
       </c>
     </row>
@@ -5030,7 +4994,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.338932237478143</v>
+        <v>1.327655356216487</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.189071719109406</v>
@@ -5119,7 +5083,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.333328465240532</v>
+        <v>1.32409926985591</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.220047912195191</v>
@@ -5208,7 +5172,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.350722653690879</v>
+        <v>1.339448913045172</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.151555112763401</v>
@@ -5297,7 +5261,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.352234978979926</v>
+        <v>1.33693707444659</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.061411560542172</v>
@@ -5386,7 +5350,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.37383118630608</v>
+        <v>1.357430681681927</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.110784731119556</v>
@@ -5475,7 +5439,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.377443791952335</v>
+        <v>1.362203259388132</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.060669065689843</v>
@@ -5564,7 +5528,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.39210067341431</v>
+        <v>1.368987672713463</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.073795066785706</v>
@@ -5653,7 +5617,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.411752415401937</v>
+        <v>1.394781671482696</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.246277526588861</v>
@@ -5742,7 +5706,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.377138924781812</v>
+        <v>1.359075275161776</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.00354125137949</v>
@@ -5831,7 +5795,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.392616836611655</v>
+        <v>1.375288129872145</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.26283568951514</v>
@@ -5920,7 +5884,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.396149112076777</v>
+        <v>1.378420593277846</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.269583880207676</v>
@@ -6009,7 +5973,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.405812363457537</v>
+        <v>1.388096318716207</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.20395642044762</v>
@@ -6098,7 +6062,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.389399517187394</v>
+        <v>1.368112517256276</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.338315890900434</v>
@@ -6187,7 +6151,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.408898521766128</v>
+        <v>1.384958788005853</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.237552637881849</v>
@@ -6276,7 +6240,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.411735410001155</v>
+        <v>1.385725967993828</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.286688434786941</v>
@@ -6365,7 +6329,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.414733289386635</v>
+        <v>1.3885896607368</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.261576595632044</v>
@@ -6454,7 +6418,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.42077833485029</v>
+        <v>1.391400430631768</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.262829567142657</v>
@@ -6543,7 +6507,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.424674172733874</v>
+        <v>1.404214317414627</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.308670304138517</v>
@@ -6632,7 +6596,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.455049683095231</v>
+        <v>1.430456078682669</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.241828255950564</v>
@@ -6721,7 +6685,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.461438059560902</v>
+        <v>1.438292264766565</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.302679539245188</v>
@@ -6810,7 +6774,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.448241655596774</v>
+        <v>1.426530239503933</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.215879571998831</v>
@@ -6899,7 +6863,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.492605301049469</v>
+        <v>1.463328927209262</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.119147645199559</v>
@@ -6988,7 +6952,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.486517892660257</v>
+        <v>1.452328672236977</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.196361635608619</v>
@@ -7077,7 +7041,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.509671272653511</v>
+        <v>1.473875283467833</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.199010192503866</v>
@@ -7166,7 +7130,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.508594335939072</v>
+        <v>1.472078463143022</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.26246805666882</v>
@@ -7255,7 +7219,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.455430055442931</v>
+        <v>1.419632984550615</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.234182731749133</v>
@@ -7344,7 +7308,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.453082350443005</v>
+        <v>1.420378568185048</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.306040993655373</v>
@@ -7433,7 +7397,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.455305221637339</v>
+        <v>1.422094308930686</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.317606552481151</v>
@@ -7522,7 +7486,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.45259725379174</v>
+        <v>1.422713799691495</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.245963050337456</v>
@@ -7611,7 +7575,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.425080022764312</v>
+        <v>1.397490412785861</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.25165988711833</v>
@@ -7700,7 +7664,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.428692357663246</v>
+        <v>1.402849066883052</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.221370059852247</v>
@@ -7789,7 +7753,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.4306000389856</v>
+        <v>1.404051798178605</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.253870543728844</v>
@@ -7878,7 +7842,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.430919768946596</v>
+        <v>1.403658472733082</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.263370171504941</v>
@@ -7967,7 +7931,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.433621428113637</v>
+        <v>1.404845236779983</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.231075054637474</v>
@@ -8056,7 +8020,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.43287836684361</v>
+        <v>1.40135905136209</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.127432888132764</v>
@@ -8145,7 +8109,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.430831159259799</v>
+        <v>1.402669712983698</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.243760198861593</v>
@@ -8234,7 +8198,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.428697848631856</v>
+        <v>1.403924661682141</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.29722939009084</v>
@@ -8323,7 +8287,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.424323310423368</v>
+        <v>1.393925992634472</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.208513688443627</v>
@@ -8412,7 +8376,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.443584803408525</v>
+        <v>1.41705394886747</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.181693139501931</v>
@@ -8501,7 +8465,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.452483687848497</v>
+        <v>1.430442777773798</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.371021846513238</v>
@@ -8590,7 +8554,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.505528022156985</v>
+        <v>1.482550591489499</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.348825778307091</v>
@@ -8679,7 +8643,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.504411442535711</v>
+        <v>1.481718934486071</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.208752425664174</v>
@@ -8768,7 +8732,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.534376273933409</v>
+        <v>1.510594939079834</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.306907814627323</v>
@@ -8857,7 +8821,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.544967936210301</v>
+        <v>1.51898833684227</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.215118480252318</v>
@@ -8946,7 +8910,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.588497464146651</v>
+        <v>1.557080227206511</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.435518909817797</v>
@@ -9035,7 +8999,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.594094566446547</v>
+        <v>1.565044957331728</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.347120276705251</v>
@@ -9124,7 +9088,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.589147473751501</v>
+        <v>1.562430512799617</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.386528454277881</v>
@@ -9213,7 +9177,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.585627522973446</v>
+        <v>1.557703122973969</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.454399913357701</v>
@@ -9302,7 +9266,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.58363983633867</v>
+        <v>1.555601716980416</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.426374570775393</v>
@@ -9588,7 +9552,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.467815480940106</v>
+        <v>1.447065230989503</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.743507585065619</v>
@@ -9677,7 +9641,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.467940609514522</v>
+        <v>1.450068994954272</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.759144695031755</v>
@@ -9766,7 +9730,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.481148696470449</v>
+        <v>1.464215343989056</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.780870496963522</v>
@@ -9855,7 +9819,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.497558458506254</v>
+        <v>1.476382998429918</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.748335116621855</v>
@@ -9944,7 +9908,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.502884791026318</v>
+        <v>1.481046938009473</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.615945752452065</v>
@@ -10033,7 +9997,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.503060869044905</v>
+        <v>1.486212254277407</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.889462046449976</v>
@@ -10122,7 +10086,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.487023070387746</v>
+        <v>1.467965177321972</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.748004910277761</v>
@@ -10211,7 +10175,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.485960605421271</v>
+        <v>1.472326850761752</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.941930261314897</v>
@@ -10300,7 +10264,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.483407873422903</v>
+        <v>1.472993593292989</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.676062738885503</v>
@@ -10389,7 +10353,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.481653705425672</v>
+        <v>1.477533271103465</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.936247654394373</v>
@@ -10478,7 +10442,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.490443266883977</v>
+        <v>1.485191549138048</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.75488716908793</v>
@@ -10567,7 +10531,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.497722622653087</v>
+        <v>1.488682972447725</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.786721380941771</v>
@@ -10656,7 +10620,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.499584785271307</v>
+        <v>1.484332706552849</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.016187249974732</v>
@@ -10745,7 +10709,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.500007056528644</v>
+        <v>1.481133126133225</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.166364947624427</v>
@@ -10834,7 +10798,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.508303247895476</v>
+        <v>1.486628379444859</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.868719917459645</v>
@@ -10923,7 +10887,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.504813761584259</v>
+        <v>1.485735204314648</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.961506534705251</v>
@@ -11012,7 +10976,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.503645916146299</v>
+        <v>1.479925585083802</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.939439116162379</v>
@@ -11101,7 +11065,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.497535465528034</v>
+        <v>1.46682522307789</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.936814487638223</v>
@@ -11190,7 +11154,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.505412545042222</v>
+        <v>1.476330600456206</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.992581530118307</v>
@@ -11279,7 +11243,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.51751225813428</v>
+        <v>1.483444759363254</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.695770302964492</v>
@@ -11368,7 +11332,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.524591347011729</v>
+        <v>1.489579586283164</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.062751482611375</v>
@@ -11457,7 +11421,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.556872133080389</v>
+        <v>1.513436696581226</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.613008341930772</v>
@@ -11546,7 +11510,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.55705192266824</v>
+        <v>1.50948054027665</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.954390860385193</v>
@@ -11635,7 +11599,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.523416953406876</v>
+        <v>1.482710873180184</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.725810033317381</v>
@@ -11724,7 +11688,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.52881365429187</v>
+        <v>1.486491249654104</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.873565296189444</v>
@@ -11813,7 +11777,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.514584486059273</v>
+        <v>1.474336877616643</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.801789150526951</v>
@@ -11902,7 +11866,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.49805772965596</v>
+        <v>1.4620641215784</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.893986298021617</v>
@@ -11991,7 +11955,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.50205028295159</v>
+        <v>1.468406489002272</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.763351632898236</v>
@@ -12080,7 +12044,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.514482127304951</v>
+        <v>1.483395350947239</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.825445394011046</v>
@@ -12169,7 +12133,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.513813030378949</v>
+        <v>1.478820000504437</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.857664183166714</v>
@@ -12258,7 +12222,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.520485228948899</v>
+        <v>1.485977660422789</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.883745943174799</v>
@@ -12347,7 +12311,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.526797002098712</v>
+        <v>1.495856520320699</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.760733338868016</v>
@@ -12436,7 +12400,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.525124241486062</v>
+        <v>1.493592727334859</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.916869177343802</v>
@@ -12525,7 +12489,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.523663348408414</v>
+        <v>1.49481002867303</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.539910203191416</v>
@@ -12614,7 +12578,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.522179264326277</v>
+        <v>1.492825969774825</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.714422570195902</v>
@@ -12703,7 +12667,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.524678001885274</v>
+        <v>1.495045550087348</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.882030125893499</v>
@@ -12792,7 +12756,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.521902324292889</v>
+        <v>1.495424303410234</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.816600929905173</v>
@@ -12881,7 +12845,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.535200571397112</v>
+        <v>1.507266586775692</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.358911051355578</v>
@@ -12970,7 +12934,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.55720688734205</v>
+        <v>1.533183136922361</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.781586522846227</v>
@@ -13059,7 +13023,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.554087735132379</v>
+        <v>1.530527641936461</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.94909548710717</v>
@@ -13148,7 +13112,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.572409164495201</v>
+        <v>1.545415070598155</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.977868606354697</v>
@@ -13237,7 +13201,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.584621236147611</v>
+        <v>1.554563407788085</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.207192816133831</v>
@@ -13326,7 +13290,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.591799051106155</v>
+        <v>1.559672786967999</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.942432022190704</v>
@@ -13415,7 +13379,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.582884915898322</v>
+        <v>1.547598838482333</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.148699564980318</v>
@@ -13504,7 +13468,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.592003133240337</v>
+        <v>1.560556407775978</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.17384525498313</v>
@@ -13593,7 +13557,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.59341404051935</v>
+        <v>1.562651151543918</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.183042465729942</v>
@@ -13682,7 +13646,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.575857895358719</v>
+        <v>1.548788329827715</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.038394366278258</v>
@@ -13771,7 +13735,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.5754372606099</v>
+        <v>1.547837747117728</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.092002631680514</v>
@@ -13860,7 +13824,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.572694869836295</v>
+        <v>1.541238117386167</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.033386364155807</v>
@@ -14146,7 +14110,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.495140652265777</v>
+        <v>1.465258207006172</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.323133570763069</v>
@@ -14235,7 +14199,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.489116464479916</v>
+        <v>1.463137247961911</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.318697131849365</v>
@@ -14324,7 +14288,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.494102863243943</v>
+        <v>1.464060743076355</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.301601822207226</v>
@@ -14413,7 +14377,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.487944013152712</v>
+        <v>1.453289818917863</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.31166109160704</v>
@@ -14502,7 +14466,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.493886611707131</v>
+        <v>1.459297340949386</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.182077166814978</v>
@@ -14591,7 +14555,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.496277259119361</v>
+        <v>1.455130950290108</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.242748449667155</v>
@@ -14680,7 +14644,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.499735050896051</v>
+        <v>1.460171748767568</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.196455641846043</v>
@@ -14769,7 +14733,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.512080488179541</v>
+        <v>1.470801023149949</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.247793825549992</v>
@@ -14858,7 +14822,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.509320767323955</v>
+        <v>1.476125386888269</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.113892520992048</v>
@@ -14947,7 +14911,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.509295421062083</v>
+        <v>1.476423496402897</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.296800130278563</v>
@@ -15036,7 +15000,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.518488907607406</v>
+        <v>1.483140042178312</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.268082815285216</v>
@@ -15125,7 +15089,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.531496361296232</v>
+        <v>1.49740553549826</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.285406369909572</v>
@@ -15214,7 +15178,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.528146203908965</v>
+        <v>1.493734260367841</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.310477274523635</v>
@@ -15303,7 +15267,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.537627815230324</v>
+        <v>1.50352197899018</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.294581941867455</v>
@@ -15392,7 +15356,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.546408575843199</v>
+        <v>1.506243563900277</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.084801967693606</v>
@@ -15481,7 +15445,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.595893752201395</v>
+        <v>1.55613444262664</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.770349104146809</v>
@@ -15570,7 +15534,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.59747975545528</v>
+        <v>1.553909737670607</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.036972895972537</v>
@@ -15659,7 +15623,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.60313078897542</v>
+        <v>1.561316579607474</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.967826853038625</v>
@@ -15748,7 +15712,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.615980421350381</v>
+        <v>1.570393512099884</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.25488954767795</v>
@@ -15837,7 +15801,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.618525637138409</v>
+        <v>1.571103760952782</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.236335446279551</v>
@@ -15926,7 +15890,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.612076346146245</v>
+        <v>1.563154700319979</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.446130435071002</v>
@@ -16015,7 +15979,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.614316725858459</v>
+        <v>1.562295551792407</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.358087205672873</v>
@@ -16104,7 +16068,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.610261214840261</v>
+        <v>1.55835347508647</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.477799128046059</v>
@@ -16193,7 +16157,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.606819548642389</v>
+        <v>1.550727914754922</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.166930640507345</v>
@@ -16282,7 +16246,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.620241265376287</v>
+        <v>1.561863657370791</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.305829029359666</v>
@@ -16371,7 +16335,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.609417419613293</v>
+        <v>1.552091134411896</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.143324535557443</v>
@@ -16460,7 +16424,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.605771207642333</v>
+        <v>1.547773012566899</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.98880052581111</v>
@@ -16549,7 +16513,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.61124549653661</v>
+        <v>1.554976518251372</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.282411332466381</v>
@@ -16638,7 +16602,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.605977025307246</v>
+        <v>1.549946170475514</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.266658813306191</v>
@@ -16727,7 +16691,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.597073843885512</v>
+        <v>1.541120028557124</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.25599142210488</v>
@@ -16816,7 +16780,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.611084123620941</v>
+        <v>1.551254349365933</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.26654595963386</v>
@@ -16905,7 +16869,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.609305638417728</v>
+        <v>1.549627183475146</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.087871302537493</v>
@@ -16994,7 +16958,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.617645180005467</v>
+        <v>1.560419129442656</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.13523564647947</v>
@@ -17083,7 +17047,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.61180180189454</v>
+        <v>1.555813659838052</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.113076510602585</v>
@@ -17172,7 +17136,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.615411671704471</v>
+        <v>1.556822251986808</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.237516240443878</v>
@@ -17261,7 +17225,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.613855218555045</v>
+        <v>1.557039962189538</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.098253547508809</v>
@@ -17350,7 +17314,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.610514735285395</v>
+        <v>1.555001608301417</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.148751058459044</v>
@@ -17439,7 +17403,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.614029144847035</v>
+        <v>1.558347180651086</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.88732136599662</v>
@@ -17528,7 +17492,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.624478028230733</v>
+        <v>1.565555387602582</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.134263152450328</v>
@@ -17617,7 +17581,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.628303786635335</v>
+        <v>1.575746289263405</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.414548423272856</v>
@@ -17706,7 +17670,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.643574083044293</v>
+        <v>1.587446831325444</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.338558258880719</v>
@@ -17795,7 +17759,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.6335948623816</v>
+        <v>1.583270145787575</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.910079843937369</v>
@@ -17884,7 +17848,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.634796629516088</v>
+        <v>1.585550697316138</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.210867189117789</v>
@@ -17973,7 +17937,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.641432059900911</v>
+        <v>1.59065336615983</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.354073383360833</v>
@@ -18062,7 +18026,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.642913895889884</v>
+        <v>1.591081556058523</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.449392488908767</v>
@@ -18151,7 +18115,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.638716056500459</v>
+        <v>1.586525016205314</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.752217573193467</v>
@@ -18240,7 +18204,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.639061244914157</v>
+        <v>1.58901893154527</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.434801548887569</v>
@@ -18329,7 +18293,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.628758484040926</v>
+        <v>1.576070547946343</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.614314557429537</v>
@@ -18418,7 +18382,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.624174152905202</v>
+        <v>1.576518043884275</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.367373887502869</v>
@@ -18704,7 +18668,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.664829189814343</v>
+        <v>1.620133706258498</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.349422491811764</v>
@@ -18793,7 +18757,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.665816586728266</v>
+        <v>1.622811121969584</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.429265444325005</v>
@@ -18882,7 +18846,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.668986697349884</v>
+        <v>1.625848736196018</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.109984031228275</v>
@@ -18971,7 +18935,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.66261085957743</v>
+        <v>1.618220049169094</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.302315742877977</v>
@@ -19060,7 +19024,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.660361047357719</v>
+        <v>1.61639801858752</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.142916105220527</v>
@@ -19149,7 +19113,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.671026927484754</v>
+        <v>1.625939015446965</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.409882220543315</v>
@@ -19238,7 +19202,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.667824271129729</v>
+        <v>1.62004749938952</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.05719309495179</v>
@@ -19327,7 +19291,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.672198041845234</v>
+        <v>1.620026368585694</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.823068480035493</v>
@@ -19416,7 +19380,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.656153373720542</v>
+        <v>1.604196089100905</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.480755332020065</v>
@@ -19505,7 +19469,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.664227979122533</v>
+        <v>1.613334503683022</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.511273768437883</v>
@@ -19594,7 +19558,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.670703199972209</v>
+        <v>1.626029909380742</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.321182256137908</v>
@@ -19683,7 +19647,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.674684302738167</v>
+        <v>1.630979508670545</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.541736355471951</v>
@@ -19772,7 +19736,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.667203814905678</v>
+        <v>1.623012120855624</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.591173939659856</v>
@@ -19861,7 +19825,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.662201063391156</v>
+        <v>1.612225121844969</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.161941191102284</v>
@@ -19950,7 +19914,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.661929138806675</v>
+        <v>1.613760611668489</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.339716041684202</v>
@@ -20039,7 +20003,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.661893995313723</v>
+        <v>1.611180953605259</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.608912055536462</v>
@@ -20128,7 +20092,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.662971994967174</v>
+        <v>1.614954009708169</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.576260665011761</v>
@@ -20217,7 +20181,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.657360593321512</v>
+        <v>1.609311478949968</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.491207483625952</v>
@@ -20306,7 +20270,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.666509660246371</v>
+        <v>1.619857895423896</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.413143028250258</v>
@@ -20395,7 +20359,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.666820454815326</v>
+        <v>1.618963625943087</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.744894216820027</v>
@@ -20484,7 +20448,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.681305853692438</v>
+        <v>1.627309611782753</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.44547317475619</v>
@@ -20573,7 +20537,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.693514287084914</v>
+        <v>1.6357839959502</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.544951916950417</v>
@@ -20662,7 +20626,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.692504920811444</v>
+        <v>1.631131163690026</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.477647360025459</v>
@@ -20751,7 +20715,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.708097452291623</v>
+        <v>1.647996907466688</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.71733148469999</v>
@@ -20840,7 +20804,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.702751814703851</v>
+        <v>1.645881757436418</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.862175385661085</v>
@@ -20929,7 +20893,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.691128199175488</v>
+        <v>1.635134101973084</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.219867448531249</v>
@@ -21018,7 +20982,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.702718964192998</v>
+        <v>1.64297350305807</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.796952707432568</v>
@@ -21107,7 +21071,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.708886622351669</v>
+        <v>1.654698837978031</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.39351538506863</v>
@@ -21196,7 +21160,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.713009456080698</v>
+        <v>1.663111062865263</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.651186661553316</v>
@@ -21285,7 +21249,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.713698652568665</v>
+        <v>1.66107123610301</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.304396445864667</v>
@@ -21374,7 +21338,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.727720601883003</v>
+        <v>1.673531646391159</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.638465305829455</v>
@@ -21463,7 +21427,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.734019606440278</v>
+        <v>1.675729649589164</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.801426364765175</v>
@@ -21552,7 +21516,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.739425815433901</v>
+        <v>1.680752797848775</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.565958048087973</v>
@@ -21641,7 +21605,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.735161716781696</v>
+        <v>1.674778956819098</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.778826615298922</v>
@@ -21730,7 +21694,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.732837652298985</v>
+        <v>1.677901582708134</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.728251764692597</v>
@@ -21819,7 +21783,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.714350411337845</v>
+        <v>1.664618669933399</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.634970147768747</v>
@@ -21908,7 +21872,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.71034998480095</v>
+        <v>1.6659687925188</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.302568021765945</v>
@@ -21997,7 +21961,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.715821991695282</v>
+        <v>1.672074205138703</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.879733999272495</v>
@@ -22086,7 +22050,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.71663780027277</v>
+        <v>1.669509959177108</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.012292347315009</v>
@@ -22175,7 +22139,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.72151270857705</v>
+        <v>1.673285120621722</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.684562508708351</v>
@@ -22264,7 +22228,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.73953024738673</v>
+        <v>1.692035413169606</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.517830723112246</v>
@@ -22353,7 +22317,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.744857342945569</v>
+        <v>1.696467512700834</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.866397856227153</v>
@@ -22442,7 +22406,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.747154894935903</v>
+        <v>1.693226720341059</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.803147301121278</v>
@@ -22531,7 +22495,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.748869547958601</v>
+        <v>1.70088457248093</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.704953025788912</v>
@@ -22620,7 +22584,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.753833434435948</v>
+        <v>1.708182523007274</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.614161332355468</v>
@@ -22709,7 +22673,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.755987056647976</v>
+        <v>1.711746671691819</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.869442988698146</v>
@@ -22798,7 +22762,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.743704455579937</v>
+        <v>1.704141766664481</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.770034099790231</v>
@@ -22887,7 +22851,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.743020959311772</v>
+        <v>1.701666526346145</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.0235287818044</v>
@@ -22976,7 +22940,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.748524688442462</v>
+        <v>1.709299311590396</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.669773370680142</v>
@@ -23262,7 +23226,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.401848539375395</v>
+        <v>1.403206003441797</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.743458154986648</v>
@@ -23351,7 +23315,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.386524531557497</v>
+        <v>1.389204233628991</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.710127524683337</v>
@@ -23440,7 +23404,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.383254395632731</v>
+        <v>1.38602387962247</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.585534199472979</v>
@@ -23529,7 +23493,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.391153597257488</v>
+        <v>1.392400025172317</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.667787569626879</v>
@@ -23618,7 +23582,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.398916457353388</v>
+        <v>1.400594753485536</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.694890124680067</v>
@@ -23707,7 +23671,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.384810487020256</v>
+        <v>1.387934411683824</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.899942831570726</v>
@@ -23796,7 +23760,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.378909374973073</v>
+        <v>1.380570440965012</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.524617732305729</v>
@@ -23885,7 +23849,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.389476774679689</v>
+        <v>1.386656712426437</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.561155654644856</v>
@@ -23974,7 +23938,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.380461814259922</v>
+        <v>1.385135598321797</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.624100541816287</v>
@@ -24063,7 +24027,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.38103226796996</v>
+        <v>1.385819440955908</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.83337771351847</v>
@@ -24152,7 +24116,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.386379731873739</v>
+        <v>1.389144489962384</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.643508775295098</v>
@@ -24241,7 +24205,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.403383469836303</v>
+        <v>1.407496719763904</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.580832153235189</v>
@@ -24330,7 +24294,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.399114271556037</v>
+        <v>1.404081000753537</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.581652872383779</v>
@@ -24419,7 +24383,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.395491352286186</v>
+        <v>1.396820843057309</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.619966135430381</v>
@@ -24508,7 +24472,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.402435060667484</v>
+        <v>1.400826727538167</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.611803119229866</v>
@@ -24597,7 +24561,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.405140282320556</v>
+        <v>1.400060709725043</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.669876463574344</v>
@@ -24686,7 +24650,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.412217058822794</v>
+        <v>1.406358040634823</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.506426132754448</v>
@@ -24775,7 +24739,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.412028426458425</v>
+        <v>1.402194875146239</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.587973792169155</v>
@@ -24864,7 +24828,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.412762733679059</v>
+        <v>1.402449883159703</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.56695088071367</v>
@@ -24953,7 +24917,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.417483404567807</v>
+        <v>1.407045099791196</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.548346055527079</v>
@@ -25042,7 +25006,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.423717212195947</v>
+        <v>1.41172011920551</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.447715931293482</v>
@@ -25131,7 +25095,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.43288298911729</v>
+        <v>1.420284473683326</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.7873477809036</v>
@@ -25220,7 +25184,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.428568067112371</v>
+        <v>1.416709323873659</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.521885545083267</v>
@@ -25309,7 +25273,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.434757785267939</v>
+        <v>1.415360164957695</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.885209075822088</v>
@@ -25398,7 +25362,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.432854114099999</v>
+        <v>1.413223365286629</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.771266105945207</v>
@@ -25487,7 +25451,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.425104794958849</v>
+        <v>1.403601504202239</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.750336682075473</v>
@@ -25576,7 +25540,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.415100795387741</v>
+        <v>1.389064541116118</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.558370490691563</v>
@@ -25665,7 +25629,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.410361120197569</v>
+        <v>1.3892791354744</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.794004991305355</v>
@@ -25754,7 +25718,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.417209739497263</v>
+        <v>1.400394345103984</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.902759275590115</v>
@@ -25843,7 +25807,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.412452082782905</v>
+        <v>1.402758975248832</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.656894220170464</v>
@@ -25932,7 +25896,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.427483560850228</v>
+        <v>1.419510220901073</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.892457160260983</v>
@@ -26021,7 +25985,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.42669660254652</v>
+        <v>1.41919352942943</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.94199870953092</v>
@@ -26110,7 +26074,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.439994187299709</v>
+        <v>1.435124697166972</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.752724954681132</v>
@@ -26199,7 +26163,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.439725246383667</v>
+        <v>1.430071894650202</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.9149065886857</v>
@@ -26288,7 +26252,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.436048098096318</v>
+        <v>1.424796356727966</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.569759713138996</v>
@@ -26377,7 +26341,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.43233343893051</v>
+        <v>1.422340477782575</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.033246090991781</v>
@@ -26466,7 +26430,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.430557397055878</v>
+        <v>1.42373076680596</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.826077009307494</v>
@@ -26555,7 +26519,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.431613806909452</v>
+        <v>1.423169345051342</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.742677744688899</v>
@@ -26644,7 +26608,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.432173213903694</v>
+        <v>1.429911183674155</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.743624929895991</v>
@@ -26733,7 +26697,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.435614616565156</v>
+        <v>1.435513898397108</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.884649593618628</v>
@@ -26822,7 +26786,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.451362343899205</v>
+        <v>1.453900746771268</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.728450760268327</v>
@@ -26911,7 +26875,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.461639417173858</v>
+        <v>1.46775650401897</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.613921724132013</v>
@@ -27000,7 +26964,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.477749010616608</v>
+        <v>1.482737414275963</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.815493459558524</v>
@@ -27089,7 +27053,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.477369086452683</v>
+        <v>1.482647917328237</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.793029574725951</v>
@@ -27178,7 +27142,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.490683340674222</v>
+        <v>1.495636692710177</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.909408825867142</v>
@@ -27267,7 +27231,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.479778876040249</v>
+        <v>1.481918997907576</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.834976258400964</v>
@@ -27356,7 +27320,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.484797159180704</v>
+        <v>1.488013965529494</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.039936964378666</v>
@@ -27445,7 +27409,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.478795680891777</v>
+        <v>1.48147604615499</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.746564672563856</v>
@@ -27534,7 +27498,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.488746574216861</v>
+        <v>1.492218711884364</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.724176888559458</v>
@@ -27820,7 +27784,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.50095270871842</v>
+        <v>1.511534006421521</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.675786755997429</v>
@@ -27909,7 +27873,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.502356937179225</v>
+        <v>1.513223924798496</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.711609014700226</v>
@@ -27998,7 +27962,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.525361213586287</v>
+        <v>1.530922520784957</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.613742482130797</v>
@@ -28087,7 +28051,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.516057924251529</v>
+        <v>1.514861327013958</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.729608049534969</v>
@@ -28176,7 +28140,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.542238099113853</v>
+        <v>1.535701138293296</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.586869427697639</v>
@@ -28265,7 +28229,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.543308177870952</v>
+        <v>1.531763816307703</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.567509182063053</v>
@@ -28354,7 +28318,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.559035363568477</v>
+        <v>1.543085404265773</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.354050266802347</v>
@@ -28443,7 +28407,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.577562653362324</v>
+        <v>1.566121133349533</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.496369996856553</v>
@@ -28532,7 +28496,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.542040239161446</v>
+        <v>1.53626522775404</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.31581188694077</v>
@@ -28621,7 +28585,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.560105134474653</v>
+        <v>1.546615917747117</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.459515325098779</v>
@@ -28710,7 +28674,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.562999454400207</v>
+        <v>1.553086655905372</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.476239208421477</v>
@@ -28799,7 +28763,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.586910696415163</v>
+        <v>1.574136050603213</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.490765583120178</v>
@@ -28888,7 +28852,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.579781928885546</v>
+        <v>1.567952201049052</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.690536742363761</v>
@@ -28977,7 +28941,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.597248423585748</v>
+        <v>1.581761205730097</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.517307681836961</v>
@@ -29066,7 +29030,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.604956637999535</v>
+        <v>1.587290437941956</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.636101731600824</v>
@@ -29155,7 +29119,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.607064194741775</v>
+        <v>1.592957122420105</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.663391326695265</v>
@@ -29244,7 +29208,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.6059675389843</v>
+        <v>1.587303921600228</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.599420097477419</v>
@@ -29333,7 +29297,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.598854097275752</v>
+        <v>1.581255275940577</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.737398894262498</v>
@@ -29422,7 +29386,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.624259096869022</v>
+        <v>1.605078056948303</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.592103068102667</v>
@@ -29511,7 +29475,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.629769377834951</v>
+        <v>1.615265837028406</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.60001824000859</v>
@@ -29600,7 +29564,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.620110913314085</v>
+        <v>1.609242282639165</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.609911514840478</v>
@@ -29689,7 +29653,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.655819137293449</v>
+        <v>1.635250284041195</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.558449056700915</v>
@@ -29778,7 +29742,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.659844392923251</v>
+        <v>1.639096884823558</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.626788550025439</v>
@@ -29867,7 +29831,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.687031902544335</v>
+        <v>1.663579381231095</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.756104561044479</v>
@@ -29956,7 +29920,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.68122391346365</v>
+        <v>1.666527658709055</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.743202393981381</v>
@@ -30045,7 +30009,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.653790119410393</v>
+        <v>1.644879596715481</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.842259559070401</v>
@@ -30134,7 +30098,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.650996922554012</v>
+        <v>1.646964551020319</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.803407252952052</v>
@@ -30223,7 +30187,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.65454350218784</v>
+        <v>1.651298889964999</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.925269548457882</v>
@@ -30312,7 +30276,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.652627905547234</v>
+        <v>1.64979223240097</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.879089860731499</v>
@@ -30401,7 +30365,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.628329276107464</v>
+        <v>1.632326693433902</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.764661969012815</v>
@@ -30490,7 +30454,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.634551825849388</v>
+        <v>1.633082719820583</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.866181161610242</v>
@@ -30579,7 +30543,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.638940511719291</v>
+        <v>1.638237742924432</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.946185641138436</v>
@@ -30668,7 +30632,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.646659174310115</v>
+        <v>1.646470519879183</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.825222134912805</v>
@@ -30757,7 +30721,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.651651493105528</v>
+        <v>1.64721914114085</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.851627329798085</v>
@@ -30846,7 +30810,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.653092554430832</v>
+        <v>1.648790418970059</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.520505142445292</v>
@@ -30935,7 +30899,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.658641805429064</v>
+        <v>1.652573851434163</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.820284137539252</v>
@@ -31024,7 +30988,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.660844658956701</v>
+        <v>1.655567484465014</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.992384407066117</v>
@@ -31113,7 +31077,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.655855110289145</v>
+        <v>1.647768597647113</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.883367379117419</v>
@@ -31202,7 +31166,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.670940583788256</v>
+        <v>1.659335851650572</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.758339645207436</v>
@@ -31291,7 +31255,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.680357548117589</v>
+        <v>1.668597803795775</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.001839592075433</v>
@@ -31380,7 +31344,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.719042825604588</v>
+        <v>1.696574842427814</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.749142461076147</v>
@@ -31469,7 +31433,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.727893547256138</v>
+        <v>1.703091709072127</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.80059194180865</v>
@@ -31558,7 +31522,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.745677422126145</v>
+        <v>1.719662760602566</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.81872022918857</v>
@@ -31647,7 +31611,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.753955623355182</v>
+        <v>1.719926214224907</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.573677453228248</v>
@@ -31736,7 +31700,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.78551787361028</v>
+        <v>1.743298038969558</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.047539840632533</v>
@@ -31825,7 +31789,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.783028785019562</v>
+        <v>1.740018808591222</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.767539794194323</v>
@@ -31914,7 +31878,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.786231680151014</v>
+        <v>1.749755177564669</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.756144188297381</v>
@@ -32003,7 +31967,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.787941512640561</v>
+        <v>1.749174020102245</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.820325734965524</v>
@@ -32092,7 +32056,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.793653094014023</v>
+        <v>1.752328264851577</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.889000074620973</v>
